--- a/media/result/result.xlsx
+++ b/media/result/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="5">
   <si>
     <t>key</t>
   </si>
@@ -30,7 +30,7 @@
     <t>energy</t>
   </si>
   <si>
-    <t>odict_keys(['CYSA9-CYSA50', 'CYSB9-CYSB50', 'THRA12-ASPA52', 'THRB12-ASPB52', 'ALAA69-GLUB29', 'CYSA7-CYSA34', 'CYSB7-CYSB34', 'GLUA29-ALAB69', 'CYSA9-GLUA38', 'CYSB9-GLUB38', 'LEUA51-VALA58', 'LEUB51-VALB58', 'ALAA69-THRB37', 'LYSA23-SERA44', 'LYSB23-SERB44', 'SERA72-THRB37', 'THRA37-ALAB69', 'LEUA5-HISA33', 'LEUB5-HISB33', 'GLUA55-VALA58', 'GLUB55-VALB58', 'ILEA28-GLUB24', 'GLUA24-ILEB28', 'LYSB42-GLUB48', 'LYSA42-GLUA48', 'THRA37-SERB72'])</t>
+    <t>odict_keys(['ASPA177-SERA346', 'TYRB50-VALB174', 'ALAA272-CYSA359', 'GLNA183-ALAA236', 'ASNA258-SERA276', 'ASPA143-SERA416', 'VALA352-SERA411', 'CYSA267-CYSA359', 'ALAA144-ARGA189', 'LEUA221-ALAA257', 'ALAB116-HISB142', 'TRPA369-ALAA394', 'GLUA199-ALAA220', 'VALB94-PHEB98', 'GLUA286-SERA312', 'PHEA306-THRB192', 'THRA243-SERA262', 'LEUB32-PHEB37', 'ASPA143-ASNA414', 'VALA184-SERA242', 'ARGA365-ALAA398', 'HISB48-SERB172', 'PHEA151-PHEA172', 'TYRA176-CYSA188', 'ALAA345-VALA349', 'ASNB181-ASPB185', 'VALB177-THRB186', 'ASPA261-META311', 'ALAA272-ASPA355', 'GLUA199-SERA224', 'GLNB63-LEUB198', 'ASPA282-ALAA303', 'ALAA399-VALA419', 'ALAA185-SERA242', 'VALA245-SERA262', 'ALAA195-VALA228', 'LEUA196-SERA224', 'GLUA203-LYSA216', 'TRPB73-VALB153', 'TYRA176-ALAA185', 'LEUA128-ASPA392', 'ALAA395-ASPA421', 'ALAB67-GLUB206', 'SERA403-ILEA415', 'TYRB85-LEUB201', 'ASPA340-ARGA363', 'ILEA148-PHEA151', 'ALAA272-GLUA356', 'ILEB65-ALAB202', 'ILEA298-ASPB185', 'META353-GLUA357', 'VALA184-ALAA236', 'CYSB57-GLUB183', 'GLUA142-SERA182', 'VALA352-ARGA409', 'ALAA362-ALAA398', 'TRPB73-ARGB131', 'VALA184-ILEA232', 'LYSA218-VALA330', 'LEUB32-GLUB36', 'VALA175-LEUA344', 'ASNB181-THRB186', 'ILEB89-VALB108', 'VALA265-ASPA355', 'CYSA135-META141', 'CYSB57-ARGB187', 'TYRA129-VALA420', 'ALAA195-SERA224', 'VALB72-THRB205', 'SERB95-PHEB98', 'GLUA238-TYRA319', 'LYSB90-ILEB111', 'ALAA398-VALA419', 'ALAB67-THRB205', 'TYRB147-VALB175', 'LEUA128-ALAA395', 'TYRB85-LYSB200', 'ASPA261-ASPA278', 'ILEA366-ALAA398', 'GLUB121-PHEB135', 'GLNB83-ILEB89', 'SERB59-ARGB187', 'META353-ALAA358', 'ALAB67-VALB72', 'METB208-ARGB210', 'VALA175-SERA346', 'ASPB80-VALB94', 'ALAA345-VALA417', 'SERA133-SERA416', 'ALAA399-VALA417', 'SERB58-VALB174', 'CYSA341-ARGA363', 'ILEA200-ALAA220', 'LEUA152-SERA168', 'ALAB67-THRB71', 'ASPA229-ILEA315', 'LEUB144-TYRB147', 'CYSB92-VALB108', 'PHEA131-VALA418', 'SERB149-TYRB173', 'LEUB60-SERB172', 'ASPA261-ASPA347', 'TYRA176-SERA242', 'VALB132-THRB152', 'VALA184-VALA240', 'ALAA257-VALA330', 'VALB177-GLUB183', 'LEUA152-ALAA197', 'ALAA287-VALA297', 'ALAA144-ALAA185', 'LEUB144-VALB175', 'ARGB77-THRB133', 'THRB151-GLUB171', 'ARGA263-SERA276', 'ASPA261-LYSA280', 'VALA245-ASNA258', 'VALA256-LEUA275', 'THRB71-THRB205', 'ILEA366-ALAA394', 'ALAA236-VALA240', 'LEUA266-LEUA275', 'ASPA209-TRPA213', 'META192-VALA228', 'SERA146-ARGA189', 'SERB182-ASPB185', 'VALA349-ALAA406', 'CYSB57-VALB177', 'VALA352-ALAA406', 'ARGB122-THRB138', 'ASPA392-ALAA395', 'HISA279-ARGA313', 'GLNA183-VALA240', 'ARGA335-ASPA339', 'CYSA188-META192', 'THRA132-ALAA399', 'ARGA263-ASPA278', 'META206-ASPA209', 'HISA279-SERA312', 'ALAA406-SERA411', 'CYSA341-LEUA422', 'GLNA153-SERA168', 'SERB136-LYSB148', 'ARGA268-ASPA339', 'ARGA268-GLUA338', 'SERB119-ILEB137', 'VALB94-ARGB106', 'ARGB81-ILEB84', 'VALA265-ALAA272', 'ILEA232-VALA235', 'SERA182-ASNA186', 'ARGA365-SERA397', 'HISB87-ASNB197', 'ASPA339-LEUA422', 'ALAA395-VALA419', 'SERA133-ASPA143', 'ALAA144-ASNA186', 'GLUA142-ALAA185', 'ASPA347-ASPA351', 'METB100-CYSB104', 'META141-ASNA414', 'ILEA290-SERA323', 'LEUA207-TRPA213', 'ALAA293-SERA323', 'LEUB126-THRB133', 'HISB48-VALB150', 'CYSB92-ARGB106', 'HISB66-TRPB166', 'ARGB131-VALB153', 'PHEB156-GLUB157', 'SERA262-SERA346', 'LEUA275-THRA331', 'THRB105-ARGB122', 'ASPB124-PHEB135', 'ARGA283-GLUA286', 'THRA132-GLUA400', 'THRB33-GLUB36', 'ALAA264-LEUA344', 'ALAA358-LEUA402', 'ALAA247-VALA256', 'LYSB86-ASNB197', 'LYSA280-ASPA282'])</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,13 +416,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
       <c r="D2">
-        <v>-48.412</v>
+        <v>-66.075</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.7466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -433,13 +433,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
       <c r="D3">
-        <v>-48.412</v>
+        <v>-62.2137</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -450,13 +450,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
       <c r="D4">
-        <v>-48.104</v>
+        <v>-57.7943</v>
       </c>
       <c r="E4">
-        <v>-0.1322</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -467,13 +467,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
       <c r="D5">
-        <v>-48.104</v>
+        <v>-51.6135</v>
       </c>
       <c r="E5">
-        <v>-0.1322</v>
+        <v>-0.8482</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -484,13 +484,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
       <c r="D6">
-        <v>-48.104</v>
+        <v>-38.1458</v>
       </c>
       <c r="E6">
-        <v>0.4871</v>
+        <v>-0.1023</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -501,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="D7">
-        <v>-43.2024</v>
+        <v>-72.0557</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="D8">
-        <v>-43.2024</v>
+        <v>-52.951</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.2037</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -535,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>0.988</v>
+        <v>0.992</v>
       </c>
       <c r="D9">
-        <v>-48.104</v>
+        <v>-58.4912</v>
       </c>
       <c r="E9">
-        <v>0.4871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -552,13 +552,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.985</v>
+        <v>0.992</v>
       </c>
       <c r="D10">
-        <v>-44.0935</v>
+        <v>-49.5729</v>
       </c>
       <c r="E10">
-        <v>-0.0364</v>
+        <v>-0.1451</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -569,13 +569,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.985</v>
+        <v>0.991</v>
       </c>
       <c r="D11">
-        <v>-44.0935</v>
+        <v>-46.7901</v>
       </c>
       <c r="E11">
-        <v>-0.0364</v>
+        <v>-0.701</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -586,30 +586,30 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.985</v>
+        <v>0.991</v>
       </c>
       <c r="D12">
-        <v>-26.3674</v>
+        <v>-42.7317</v>
       </c>
       <c r="E12">
-        <v>-0.7327</v>
+        <v>-0.1905</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.985</v>
+        <v>0.99</v>
       </c>
       <c r="D13">
-        <v>-26.3674</v>
+        <v>-19.3885</v>
       </c>
       <c r="E13">
-        <v>-0.7327</v>
+        <v>0.1928</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -620,47 +620,47 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.968</v>
+        <v>0.99</v>
       </c>
       <c r="D14">
-        <v>-45.3212</v>
+        <v>-40.0682</v>
       </c>
       <c r="E14">
-        <v>0.8351</v>
+        <v>-0.2184</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>0.958</v>
+        <v>0.99</v>
       </c>
       <c r="D15">
-        <v>-40.0682</v>
+        <v>-42.2426</v>
       </c>
       <c r="E15">
-        <v>0.0214</v>
+        <v>1.091</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.958</v>
+        <v>0.989</v>
       </c>
       <c r="D16">
-        <v>-40.0682</v>
+        <v>-42.7317</v>
       </c>
       <c r="E16">
-        <v>0.0213</v>
+        <v>1.0062</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -671,13 +671,13 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.832</v>
+        <v>0.988</v>
       </c>
       <c r="D17">
-        <v>-46.4387</v>
+        <v>-61.1651</v>
       </c>
       <c r="E17">
-        <v>0.498</v>
+        <v>1.4349</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -688,13 +688,13 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.82</v>
+        <v>0.988</v>
       </c>
       <c r="D18">
-        <v>-45.3212</v>
+        <v>-38.8201</v>
       </c>
       <c r="E18">
-        <v>0.8351</v>
+        <v>0.4868</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -705,13 +705,13 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>0.8080000000000001</v>
+        <v>0.988</v>
       </c>
       <c r="D19">
-        <v>-43.6559</v>
+        <v>-22.1713</v>
       </c>
       <c r="E19">
-        <v>-0.896</v>
+        <v>-0.5168</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -722,13 +722,13 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.8070000000000001</v>
+        <v>0.987</v>
       </c>
       <c r="D20">
-        <v>-43.6559</v>
+        <v>-71.964</v>
       </c>
       <c r="E20">
-        <v>-0.896</v>
+        <v>-0.5679</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -739,13 +739,13 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>0.8</v>
+        <v>0.987</v>
       </c>
       <c r="D21">
-        <v>-15.8008</v>
+        <v>-52.7378</v>
       </c>
       <c r="E21">
-        <v>-0.8424</v>
+        <v>-1.7782</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -756,81 +756,81 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.8</v>
+        <v>0.987</v>
       </c>
       <c r="D22">
-        <v>-15.8008</v>
+        <v>-45.7049</v>
       </c>
       <c r="E22">
-        <v>-0.8424</v>
+        <v>0.3605</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.6870000000000001</v>
+        <v>0.986</v>
       </c>
       <c r="D23">
-        <v>-19.3885</v>
+        <v>-33.0893</v>
       </c>
       <c r="E23">
-        <v>-0.3633</v>
+        <v>-0.1269</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.6850000000000001</v>
+        <v>0.986</v>
       </c>
       <c r="D24">
         <v>-19.3885</v>
       </c>
       <c r="E24">
-        <v>-0.3633</v>
+        <v>0.7196</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25">
-        <v>0.632</v>
+        <v>0.986</v>
       </c>
       <c r="D25">
-        <v>-24.445</v>
+        <v>-40.0682</v>
       </c>
       <c r="E25">
-        <v>-0.4462</v>
+        <v>0.8696</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.631</v>
+        <v>0.986</v>
       </c>
       <c r="D26">
-        <v>-24.445</v>
+        <v>-62.2137</v>
       </c>
       <c r="E26">
-        <v>-0.4461</v>
+        <v>-0.4633</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -841,13 +841,2648 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>0.583</v>
+        <v>0.984</v>
       </c>
       <c r="D27">
-        <v>-46.4387</v>
+        <v>-19.3885</v>
       </c>
       <c r="E27">
-        <v>0.498</v>
+        <v>0.0171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0.983</v>
+      </c>
+      <c r="D28">
+        <v>-29.5016</v>
+      </c>
+      <c r="E28">
+        <v>0.9147999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0.981</v>
+      </c>
+      <c r="D29">
+        <v>-50.8868</v>
+      </c>
+      <c r="E29">
+        <v>0.8885999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0.979</v>
+      </c>
+      <c r="D30">
+        <v>-57.2074</v>
+      </c>
+      <c r="E30">
+        <v>-1.2746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>0.978</v>
+      </c>
+      <c r="D31">
+        <v>-42.2426</v>
+      </c>
+      <c r="E31">
+        <v>-0.4698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0.977</v>
+      </c>
+      <c r="D32">
+        <v>-63.2737</v>
+      </c>
+      <c r="E32">
+        <v>-1.8363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0.976</v>
+      </c>
+      <c r="D33">
+        <v>-40.0682</v>
+      </c>
+      <c r="E33">
+        <v>1.1267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0.976</v>
+      </c>
+      <c r="D34">
+        <v>-39.4598</v>
+      </c>
+      <c r="E34">
+        <v>-0.1331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>0.975</v>
+      </c>
+      <c r="D35">
+        <v>-37.433</v>
+      </c>
+      <c r="E35">
+        <v>0.2234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>0.975</v>
+      </c>
+      <c r="D36">
+        <v>-52.5209</v>
+      </c>
+      <c r="E36">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>0.974</v>
+      </c>
+      <c r="D37">
+        <v>-45.7049</v>
+      </c>
+      <c r="E37">
+        <v>-0.3485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>0.972</v>
+      </c>
+      <c r="D38">
+        <v>-43.6559</v>
+      </c>
+      <c r="E38">
+        <v>-0.9635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0.972</v>
+      </c>
+      <c r="D39">
+        <v>-34.0875</v>
+      </c>
+      <c r="E39">
+        <v>-0.7744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>0.97</v>
+      </c>
+      <c r="D40">
+        <v>-56.7483</v>
+      </c>
+      <c r="E40">
+        <v>-0.062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0.968</v>
+      </c>
+      <c r="D41">
+        <v>-29.5016</v>
+      </c>
+      <c r="E41">
+        <v>-0.1244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>0.967</v>
+      </c>
+      <c r="D42">
+        <v>-71.6377</v>
+      </c>
+      <c r="E42">
+        <v>-0.096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0.964</v>
+      </c>
+      <c r="D43">
+        <v>-42.7317</v>
+      </c>
+      <c r="E43">
+        <v>1.3443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0.963</v>
+      </c>
+      <c r="D44">
+        <v>-63.6378</v>
+      </c>
+      <c r="E44">
+        <v>-0.8903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>0.963</v>
+      </c>
+      <c r="D45">
+        <v>-33.0893</v>
+      </c>
+      <c r="E45">
+        <v>-0.3611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0.962</v>
+      </c>
+      <c r="D46">
+        <v>-15.8008</v>
+      </c>
+      <c r="E46">
+        <v>0.4009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>0.962</v>
+      </c>
+      <c r="D47">
+        <v>-41.2027</v>
+      </c>
+      <c r="E47">
+        <v>-1.3028</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0.962</v>
+      </c>
+      <c r="D48">
+        <v>-61.382</v>
+      </c>
+      <c r="E48">
+        <v>-0.4733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>0.961</v>
+      </c>
+      <c r="D49">
+        <v>-57.3567</v>
+      </c>
+      <c r="E49">
+        <v>0.3851</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>0.96</v>
+      </c>
+      <c r="D50">
+        <v>-63.4571</v>
+      </c>
+      <c r="E50">
+        <v>-0.7934</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>0.96</v>
+      </c>
+      <c r="D51">
+        <v>-61.0553</v>
+      </c>
+      <c r="E51">
+        <v>0.2391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>0.96</v>
+      </c>
+      <c r="D52">
+        <v>-19.3885</v>
+      </c>
+      <c r="E52">
+        <v>-1.3537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>0.959</v>
+      </c>
+      <c r="D53">
+        <v>-51.376</v>
+      </c>
+      <c r="E53">
+        <v>-1.5162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.953</v>
+      </c>
+      <c r="D54">
+        <v>-62.4133</v>
+      </c>
+      <c r="E54">
+        <v>0.7643</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>0.952</v>
+      </c>
+      <c r="D55">
+        <v>-48.104</v>
+      </c>
+      <c r="E55">
+        <v>-0.0588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>0.951</v>
+      </c>
+      <c r="D56">
+        <v>-52.5209</v>
+      </c>
+      <c r="E56">
+        <v>1.4112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>0.95</v>
+      </c>
+      <c r="D57">
+        <v>-46.7901</v>
+      </c>
+      <c r="E57">
+        <v>0.5446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>0.949</v>
+      </c>
+      <c r="D58">
+        <v>-52.7378</v>
+      </c>
+      <c r="E58">
+        <v>-0.2885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>0.948</v>
+      </c>
+      <c r="D59">
+        <v>-50.3777</v>
+      </c>
+      <c r="E59">
+        <v>-2.2895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>0.947</v>
+      </c>
+      <c r="D60">
+        <v>-19.3885</v>
+      </c>
+      <c r="E60">
+        <v>-0.528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>0.947</v>
+      </c>
+      <c r="D61">
+        <v>-60.9444</v>
+      </c>
+      <c r="E61">
+        <v>0.0303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D62">
+        <v>-66.075</v>
+      </c>
+      <c r="E62">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="D63">
+        <v>-22.1713</v>
+      </c>
+      <c r="E63">
+        <v>1.4466</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D64">
+        <v>-38.8201</v>
+      </c>
+      <c r="E64">
+        <v>-0.094</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>0.931</v>
+      </c>
+      <c r="D65">
+        <v>-58.2171</v>
+      </c>
+      <c r="E65">
+        <v>-0.2426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>0.929</v>
+      </c>
+      <c r="D66">
+        <v>-24.445</v>
+      </c>
+      <c r="E66">
+        <v>0.3022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>0.927</v>
+      </c>
+      <c r="D67">
+        <v>-62.803</v>
+      </c>
+      <c r="E67">
+        <v>0.6446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>0.926</v>
+      </c>
+      <c r="D68">
+        <v>-72.852</v>
+      </c>
+      <c r="E68">
+        <v>0.7578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>0.92</v>
+      </c>
+      <c r="D69">
+        <v>-44.0935</v>
+      </c>
+      <c r="E69">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>0.918</v>
+      </c>
+      <c r="D70">
+        <v>-15.8008</v>
+      </c>
+      <c r="E70">
+        <v>0.1116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>0.918</v>
+      </c>
+      <c r="D71">
+        <v>-63.0875</v>
+      </c>
+      <c r="E71">
+        <v>-2.1806</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>0.917</v>
+      </c>
+      <c r="D72">
+        <v>-56.9032</v>
+      </c>
+      <c r="E72">
+        <v>-0.6405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>0.917</v>
+      </c>
+      <c r="D73">
+        <v>-40.0682</v>
+      </c>
+      <c r="E73">
+        <v>0.2831</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>0.913</v>
+      </c>
+      <c r="D74">
+        <v>-40.0682</v>
+      </c>
+      <c r="E74">
+        <v>0.2151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>0.91</v>
+      </c>
+      <c r="D75">
+        <v>-63.5478</v>
+      </c>
+      <c r="E75">
+        <v>-2.0004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>0.905</v>
+      </c>
+      <c r="D76">
+        <v>-43.6559</v>
+      </c>
+      <c r="E76">
+        <v>-1.1384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0.901</v>
+      </c>
+      <c r="D77">
+        <v>-71.7786</v>
+      </c>
+      <c r="E77">
+        <v>1.4859</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>0.896</v>
+      </c>
+      <c r="D78">
+        <v>-61.274</v>
+      </c>
+      <c r="E78">
+        <v>0.6345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>0.896</v>
+      </c>
+      <c r="D79">
+        <v>-37.433</v>
+      </c>
+      <c r="E79">
+        <v>0.6035</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>0.895</v>
+      </c>
+      <c r="D80">
+        <v>-45.3212</v>
+      </c>
+      <c r="E80">
+        <v>-0.3118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>0.892</v>
+      </c>
+      <c r="D81">
+        <v>-24.445</v>
+      </c>
+      <c r="E81">
+        <v>0.7131999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>0.892</v>
+      </c>
+      <c r="D82">
+        <v>-35.0117</v>
+      </c>
+      <c r="E82">
+        <v>1.1407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>0.89</v>
+      </c>
+      <c r="D83">
+        <v>-62.6097</v>
+      </c>
+      <c r="E83">
+        <v>0.6446</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0.885</v>
+      </c>
+      <c r="D84">
+        <v>-22.1713</v>
+      </c>
+      <c r="E84">
+        <v>-1.158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>0.884</v>
+      </c>
+      <c r="D85">
+        <v>-22.1713</v>
+      </c>
+      <c r="E85">
+        <v>-0.0232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>0.884</v>
+      </c>
+      <c r="D86">
+        <v>-10.7442</v>
+      </c>
+      <c r="E86">
+        <v>-1.9483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>0.883</v>
+      </c>
+      <c r="D87">
+        <v>-66.2217</v>
+      </c>
+      <c r="E87">
+        <v>-0.0591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>0.882</v>
+      </c>
+      <c r="D88">
+        <v>-35.0117</v>
+      </c>
+      <c r="E88">
+        <v>-0.1263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>0.875</v>
+      </c>
+      <c r="D89">
+        <v>-55.4343</v>
+      </c>
+      <c r="E89">
+        <v>0.1751</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0.872</v>
+      </c>
+      <c r="D90">
+        <v>-72.5044</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>0.87</v>
+      </c>
+      <c r="D91">
+        <v>-38.1458</v>
+      </c>
+      <c r="E91">
+        <v>-0.489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>0.868</v>
+      </c>
+      <c r="D92">
+        <v>-61.382</v>
+      </c>
+      <c r="E92">
+        <v>-0.2366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>0.865</v>
+      </c>
+      <c r="D93">
+        <v>-40.6484</v>
+      </c>
+      <c r="E93">
+        <v>-0.8387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>0.861</v>
+      </c>
+      <c r="D94">
+        <v>-39.4598</v>
+      </c>
+      <c r="E94">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>0.856</v>
+      </c>
+      <c r="D95">
+        <v>-36.677</v>
+      </c>
+      <c r="E95">
+        <v>0.6508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>0.856</v>
+      </c>
+      <c r="D96">
+        <v>-19.3885</v>
+      </c>
+      <c r="E96">
+        <v>-0.2328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>0.851</v>
+      </c>
+      <c r="D97">
+        <v>-57.6502</v>
+      </c>
+      <c r="E97">
+        <v>-0.8746</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>0.851</v>
+      </c>
+      <c r="D98">
+        <v>-15.8008</v>
+      </c>
+      <c r="E98">
+        <v>-1.0344</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>0.845</v>
+      </c>
+      <c r="D99">
+        <v>-36.677</v>
+      </c>
+      <c r="E99">
+        <v>-0.3594</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>0.843</v>
+      </c>
+      <c r="D100">
+        <v>-72.6794</v>
+      </c>
+      <c r="E100">
+        <v>0.0762</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>0.839</v>
+      </c>
+      <c r="D101">
+        <v>-41.7335</v>
+      </c>
+      <c r="E101">
+        <v>0.6882</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0.838</v>
+      </c>
+      <c r="D102">
+        <v>-57.6502</v>
+      </c>
+      <c r="E102">
+        <v>0.4998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>0.838</v>
+      </c>
+      <c r="D103">
+        <v>-54.3492</v>
+      </c>
+      <c r="E103">
+        <v>-0.1269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>0.838</v>
+      </c>
+      <c r="D104">
+        <v>-60.9444</v>
+      </c>
+      <c r="E104">
+        <v>-0.1808</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>0.827</v>
+      </c>
+      <c r="D105">
+        <v>-39.4598</v>
+      </c>
+      <c r="E105">
+        <v>-1.2011</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>0.825</v>
+      </c>
+      <c r="D106">
+        <v>-52.3002</v>
+      </c>
+      <c r="E106">
+        <v>-1.1813</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>0.823</v>
+      </c>
+      <c r="D107">
+        <v>-55.6063</v>
+      </c>
+      <c r="E107">
+        <v>-0.2119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>0.823</v>
+      </c>
+      <c r="D108">
+        <v>-24.445</v>
+      </c>
+      <c r="E108">
+        <v>0.9989</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>0.821</v>
+      </c>
+      <c r="D109">
+        <v>-49.5729</v>
+      </c>
+      <c r="E109">
+        <v>0.6421</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>0.821</v>
+      </c>
+      <c r="D110">
+        <v>-30.8155</v>
+      </c>
+      <c r="E110">
+        <v>0.0416</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="D111">
+        <v>-48.412</v>
+      </c>
+      <c r="E111">
+        <v>-0.2265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="D112">
+        <v>-44.9253</v>
+      </c>
+      <c r="E112">
+        <v>-0.603</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="D113">
+        <v>-52.3002</v>
+      </c>
+      <c r="E113">
+        <v>0.06850000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0.803</v>
+      </c>
+      <c r="D114">
+        <v>-39.4598</v>
+      </c>
+      <c r="E114">
+        <v>-1.0172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0.799</v>
+      </c>
+      <c r="D115">
+        <v>-34.0875</v>
+      </c>
+      <c r="E115">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>0.797</v>
+      </c>
+      <c r="D116">
+        <v>-38.8201</v>
+      </c>
+      <c r="E116">
+        <v>0.4089</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>0.797</v>
+      </c>
+      <c r="D117">
+        <v>-34.0875</v>
+      </c>
+      <c r="E117">
+        <v>0.1211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0.793</v>
+      </c>
+      <c r="D118">
+        <v>-38.8201</v>
+      </c>
+      <c r="E118">
+        <v>-0.6845</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>0.79</v>
+      </c>
+      <c r="D119">
+        <v>-63.181</v>
+      </c>
+      <c r="E119">
+        <v>-2.3902</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>0.79</v>
+      </c>
+      <c r="D120">
+        <v>-43.6559</v>
+      </c>
+      <c r="E120">
+        <v>0.4151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>0.789</v>
+      </c>
+      <c r="D121">
+        <v>-19.3885</v>
+      </c>
+      <c r="E121">
+        <v>0.859</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0.786</v>
+      </c>
+      <c r="D122">
+        <v>-29.5016</v>
+      </c>
+      <c r="E122">
+        <v>-0.866</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>0.785</v>
+      </c>
+      <c r="D123">
+        <v>-19.3885</v>
+      </c>
+      <c r="E123">
+        <v>-0.2239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>0.783</v>
+      </c>
+      <c r="D124">
+        <v>-46.7901</v>
+      </c>
+      <c r="E124">
+        <v>-0.7106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>0.782</v>
+      </c>
+      <c r="D125">
+        <v>-49.0059</v>
+      </c>
+      <c r="E125">
+        <v>0.0839</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>0.773</v>
+      </c>
+      <c r="D126">
+        <v>-15.8008</v>
+      </c>
+      <c r="E126">
+        <v>-0.7493</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>0.772</v>
+      </c>
+      <c r="D127">
+        <v>-52.5209</v>
+      </c>
+      <c r="E127">
+        <v>0.2345</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>0.763</v>
+      </c>
+      <c r="D128">
+        <v>-61.8048</v>
+      </c>
+      <c r="E128">
+        <v>0.2346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>0.76</v>
+      </c>
+      <c r="D129">
+        <v>-51.8466</v>
+      </c>
+      <c r="E129">
+        <v>1.005</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>0.76</v>
+      </c>
+      <c r="D130">
+        <v>-36.677</v>
+      </c>
+      <c r="E130">
+        <v>-0.6422</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>0.759</v>
+      </c>
+      <c r="D131">
+        <v>-15.8008</v>
+      </c>
+      <c r="E131">
+        <v>1.4295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0.754</v>
+      </c>
+      <c r="D132">
+        <v>-46.0772</v>
+      </c>
+      <c r="E132">
+        <v>0.9838</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>0.748</v>
+      </c>
+      <c r="D133">
+        <v>-52.5209</v>
+      </c>
+      <c r="E133">
+        <v>-0.5134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>0.747</v>
+      </c>
+      <c r="D134">
+        <v>-19.3885</v>
+      </c>
+      <c r="E134">
+        <v>0.3352</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0.739</v>
+      </c>
+      <c r="D135">
+        <v>-19.3885</v>
+      </c>
+      <c r="E135">
+        <v>-0.1461</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>0.728</v>
+      </c>
+      <c r="D136">
+        <v>-71.7786</v>
+      </c>
+      <c r="E136">
+        <v>-1.2307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>0.727</v>
+      </c>
+      <c r="D137">
+        <v>-35.8721</v>
+      </c>
+      <c r="E137">
+        <v>0.4863</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>0.72</v>
+      </c>
+      <c r="D138">
+        <v>-15.8008</v>
+      </c>
+      <c r="E138">
+        <v>0.3383</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>0.715</v>
+      </c>
+      <c r="D139">
+        <v>-45.7049</v>
+      </c>
+      <c r="E139">
+        <v>-0.6024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>0.713</v>
+      </c>
+      <c r="D140">
+        <v>-22.1713</v>
+      </c>
+      <c r="E140">
+        <v>-0.1987</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>0.712</v>
+      </c>
+      <c r="D141">
+        <v>-56.9032</v>
+      </c>
+      <c r="E141">
+        <v>0.1613</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>0.701</v>
+      </c>
+      <c r="D142">
+        <v>-35.8721</v>
+      </c>
+      <c r="E142">
+        <v>0.2144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>0.698</v>
+      </c>
+      <c r="D143">
+        <v>-33.0893</v>
+      </c>
+      <c r="E143">
+        <v>-0.2477</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D144">
+        <v>-55.2599</v>
+      </c>
+      <c r="E144">
+        <v>0.2735</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D145">
+        <v>-55.083</v>
+      </c>
+      <c r="E145">
+        <v>0.6554</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>0.667</v>
+      </c>
+      <c r="D146">
+        <v>-38.1458</v>
+      </c>
+      <c r="E146">
+        <v>0.5913</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>0.658</v>
+      </c>
+      <c r="D147">
+        <v>-33.0893</v>
+      </c>
+      <c r="E147">
+        <v>-0.6482</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>0.658</v>
+      </c>
+      <c r="D148">
+        <v>-15.8008</v>
+      </c>
+      <c r="E148">
+        <v>1.3645</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>0.654</v>
+      </c>
+      <c r="D149">
+        <v>-26.3674</v>
+      </c>
+      <c r="E149">
+        <v>1.0228</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>0.644</v>
+      </c>
+      <c r="D150">
+        <v>-15.8008</v>
+      </c>
+      <c r="E150">
+        <v>-0.2847</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>0.64</v>
+      </c>
+      <c r="D151">
+        <v>-19.3885</v>
+      </c>
+      <c r="E151">
+        <v>-0.4879</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>0.638</v>
+      </c>
+      <c r="D152">
+        <v>-45.3212</v>
+      </c>
+      <c r="E152">
+        <v>0.3901</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>0.636</v>
+      </c>
+      <c r="D153">
+        <v>-60.7197</v>
+      </c>
+      <c r="E153">
+        <v>0.0358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>0.634</v>
+      </c>
+      <c r="D154">
+        <v>-57.2074</v>
+      </c>
+      <c r="E154">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>0.632</v>
+      </c>
+      <c r="D155">
+        <v>-41.7335</v>
+      </c>
+      <c r="E155">
+        <v>1.7503</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>0.628</v>
+      </c>
+      <c r="D156">
+        <v>-30.8155</v>
+      </c>
+      <c r="E156">
+        <v>-0.0298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>0.627</v>
+      </c>
+      <c r="D157">
+        <v>-48.7125</v>
+      </c>
+      <c r="E157">
+        <v>-0.7169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>0.624</v>
+      </c>
+      <c r="D158">
+        <v>-49.0059</v>
+      </c>
+      <c r="E158">
+        <v>-0.0563</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>0.62</v>
+      </c>
+      <c r="D159">
+        <v>-19.3885</v>
+      </c>
+      <c r="E159">
+        <v>-0.8183</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>0.617</v>
+      </c>
+      <c r="D160">
+        <v>-19.3885</v>
+      </c>
+      <c r="E160">
+        <v>-0.6744</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>0.612</v>
+      </c>
+      <c r="D161">
+        <v>-72.0557</v>
+      </c>
+      <c r="E161">
+        <v>-0.2359</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>0.603</v>
+      </c>
+      <c r="D162">
+        <v>-45.7049</v>
+      </c>
+      <c r="E162">
+        <v>-0.2143</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>0.598</v>
+      </c>
+      <c r="D163">
+        <v>-24.445</v>
+      </c>
+      <c r="E163">
+        <v>-0.0318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>0.59</v>
+      </c>
+      <c r="D164">
+        <v>-44.5163</v>
+      </c>
+      <c r="E164">
+        <v>0.7000999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>0.58</v>
+      </c>
+      <c r="D165">
+        <v>-26.3674</v>
+      </c>
+      <c r="E165">
+        <v>-0.7693</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>0.573</v>
+      </c>
+      <c r="D166">
+        <v>-59.778</v>
+      </c>
+      <c r="E166">
+        <v>-1.3243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>0.571</v>
+      </c>
+      <c r="D167">
+        <v>-35.0117</v>
+      </c>
+      <c r="E167">
+        <v>-0.7292999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="D168">
+        <v>-59.5311</v>
+      </c>
+      <c r="E168">
+        <v>0.0474</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D169">
+        <v>-40.6484</v>
+      </c>
+      <c r="E169">
+        <v>-0.2414</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D170">
+        <v>-2.1</v>
+      </c>
+      <c r="E170">
+        <v>0.7302999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>0.551</v>
+      </c>
+      <c r="D171">
+        <v>-57.3567</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>0.536</v>
+      </c>
+      <c r="D172">
+        <v>-52.3002</v>
+      </c>
+      <c r="E172">
+        <v>-0.5199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>0.528</v>
+      </c>
+      <c r="D173">
+        <v>-37.433</v>
+      </c>
+      <c r="E173">
+        <v>-0.4668</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>0.527</v>
+      </c>
+      <c r="D174">
+        <v>-32.0042</v>
+      </c>
+      <c r="E174">
+        <v>2.074</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>0.527</v>
+      </c>
+      <c r="D175">
+        <v>-15.8008</v>
+      </c>
+      <c r="E175">
+        <v>0.7096</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>0.526</v>
+      </c>
+      <c r="D176">
+        <v>-71.8252</v>
+      </c>
+      <c r="E176">
+        <v>-1.059</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>0.52</v>
+      </c>
+      <c r="D177">
+        <v>-15.8008</v>
+      </c>
+      <c r="E177">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>0.515</v>
+      </c>
+      <c r="D178">
+        <v>-56.7483</v>
+      </c>
+      <c r="E178">
+        <v>1.0301</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>0.51</v>
+      </c>
+      <c r="D179">
+        <v>-49.2926</v>
+      </c>
+      <c r="E179">
+        <v>-1.0977</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>0.509</v>
+      </c>
+      <c r="D180">
+        <v>-29.5016</v>
+      </c>
+      <c r="E180">
+        <v>0.0648</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>0.503</v>
+      </c>
+      <c r="D181">
+        <v>-60.8326</v>
+      </c>
+      <c r="E181">
+        <v>0.0202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>0.503</v>
+      </c>
+      <c r="D182">
+        <v>-10.7442</v>
+      </c>
+      <c r="E182">
+        <v>0.8564000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +3492,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,364 +3514,364 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2">
-        <v>-15.8008</v>
+        <v>-2.1</v>
       </c>
       <c r="E2">
-        <v>-0.8424</v>
+        <v>0.7302999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.503</v>
       </c>
       <c r="D3">
-        <v>-15.8008</v>
+        <v>-10.7442</v>
       </c>
       <c r="E3">
-        <v>-0.8424</v>
+        <v>0.8564000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.6850000000000001</v>
+        <v>0.884</v>
       </c>
       <c r="D4">
-        <v>-19.3885</v>
+        <v>-10.7442</v>
       </c>
       <c r="E4">
-        <v>-0.3633</v>
+        <v>-1.9483</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.6870000000000001</v>
+        <v>0.773</v>
       </c>
       <c r="D5">
-        <v>-19.3885</v>
+        <v>-15.8008</v>
       </c>
       <c r="E5">
-        <v>-0.3633</v>
+        <v>-0.7493</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.631</v>
+        <v>0.527</v>
       </c>
       <c r="D6">
-        <v>-24.445</v>
+        <v>-15.8008</v>
       </c>
       <c r="E6">
-        <v>-0.4461</v>
+        <v>0.7096</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.632</v>
+        <v>0.759</v>
       </c>
       <c r="D7">
-        <v>-24.445</v>
+        <v>-15.8008</v>
       </c>
       <c r="E7">
-        <v>-0.4462</v>
+        <v>1.4295</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.985</v>
+        <v>0.962</v>
       </c>
       <c r="D8">
-        <v>-26.3674</v>
+        <v>-15.8008</v>
       </c>
       <c r="E8">
-        <v>-0.7327</v>
+        <v>0.4009</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>0.985</v>
+        <v>0.72</v>
       </c>
       <c r="D9">
-        <v>-26.3674</v>
+        <v>-15.8008</v>
       </c>
       <c r="E9">
-        <v>-0.7327</v>
+        <v>0.3383</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.958</v>
+        <v>0.851</v>
       </c>
       <c r="D10">
-        <v>-40.0682</v>
+        <v>-15.8008</v>
       </c>
       <c r="E10">
-        <v>0.0213</v>
+        <v>-1.0344</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.958</v>
+        <v>0.918</v>
       </c>
       <c r="D11">
-        <v>-40.0682</v>
+        <v>-15.8008</v>
       </c>
       <c r="E11">
-        <v>0.0214</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.99</v>
+        <v>0.658</v>
       </c>
       <c r="D12">
-        <v>-43.2024</v>
+        <v>-15.8008</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1.3645</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.99</v>
+        <v>0.644</v>
       </c>
       <c r="D13">
-        <v>-43.2024</v>
+        <v>-15.8008</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-0.2847</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.8080000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="D14">
-        <v>-43.6559</v>
+        <v>-15.8008</v>
       </c>
       <c r="E14">
-        <v>-0.896</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>0.8070000000000001</v>
+        <v>0.986</v>
       </c>
       <c r="D15">
-        <v>-43.6559</v>
+        <v>-19.3885</v>
       </c>
       <c r="E15">
-        <v>-0.896</v>
+        <v>0.7196</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.985</v>
+        <v>0.984</v>
       </c>
       <c r="D16">
-        <v>-44.0935</v>
+        <v>-19.3885</v>
       </c>
       <c r="E16">
-        <v>-0.0364</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.985</v>
+        <v>0.789</v>
       </c>
       <c r="D17">
-        <v>-44.0935</v>
+        <v>-19.3885</v>
       </c>
       <c r="E17">
-        <v>-0.0364</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.968</v>
+        <v>0.856</v>
       </c>
       <c r="D18">
-        <v>-45.3212</v>
+        <v>-19.3885</v>
       </c>
       <c r="E18">
-        <v>0.8351</v>
+        <v>-0.2328</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19">
-        <v>0.82</v>
+        <v>0.785</v>
       </c>
       <c r="D19">
-        <v>-45.3212</v>
+        <v>-19.3885</v>
       </c>
       <c r="E19">
-        <v>0.8351</v>
+        <v>-0.2239</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.583</v>
+        <v>0.617</v>
       </c>
       <c r="D20">
-        <v>-46.4387</v>
+        <v>-19.3885</v>
       </c>
       <c r="E20">
-        <v>0.498</v>
+        <v>-0.6744</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>0.832</v>
+        <v>0.747</v>
       </c>
       <c r="D21">
-        <v>-46.4387</v>
+        <v>-19.3885</v>
       </c>
       <c r="E21">
-        <v>0.498</v>
+        <v>0.3352</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.988</v>
+        <v>0.947</v>
       </c>
       <c r="D22">
-        <v>-48.104</v>
+        <v>-19.3885</v>
       </c>
       <c r="E22">
-        <v>0.4871</v>
+        <v>-0.528</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -1245,78 +3880,2713 @@
         <v>0.99</v>
       </c>
       <c r="D23">
-        <v>-48.104</v>
+        <v>-19.3885</v>
       </c>
       <c r="E23">
-        <v>0.4871</v>
+        <v>0.1928</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.993</v>
+        <v>0.739</v>
       </c>
       <c r="D24">
-        <v>-48.104</v>
+        <v>-19.3885</v>
       </c>
       <c r="E24">
-        <v>-0.1322</v>
+        <v>-0.1461</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25">
-        <v>0.993</v>
+        <v>0.96</v>
       </c>
       <c r="D25">
-        <v>-48.104</v>
+        <v>-19.3885</v>
       </c>
       <c r="E25">
-        <v>-0.1322</v>
+        <v>-1.3537</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.997</v>
+        <v>0.64</v>
       </c>
       <c r="D26">
-        <v>-48.412</v>
+        <v>-19.3885</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>-0.4879</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>0.62</v>
+      </c>
+      <c r="D27">
+        <v>-19.3885</v>
+      </c>
+      <c r="E27">
+        <v>-0.8183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0.884</v>
+      </c>
+      <c r="D28">
+        <v>-22.1713</v>
+      </c>
+      <c r="E28">
+        <v>-0.0232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0.885</v>
+      </c>
+      <c r="D29">
+        <v>-22.1713</v>
+      </c>
+      <c r="E29">
+        <v>-1.158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="D30">
+        <v>-22.1713</v>
+      </c>
+      <c r="E30">
+        <v>1.4466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>0.713</v>
+      </c>
+      <c r="D31">
+        <v>-22.1713</v>
+      </c>
+      <c r="E31">
+        <v>-0.1987</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0.988</v>
+      </c>
+      <c r="D32">
+        <v>-22.1713</v>
+      </c>
+      <c r="E32">
+        <v>-0.5168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0.929</v>
+      </c>
+      <c r="D33">
+        <v>-24.445</v>
+      </c>
+      <c r="E33">
+        <v>0.3022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0.892</v>
+      </c>
+      <c r="D34">
+        <v>-24.445</v>
+      </c>
+      <c r="E34">
+        <v>0.7131999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>0.598</v>
+      </c>
+      <c r="D35">
+        <v>-24.445</v>
+      </c>
+      <c r="E35">
+        <v>-0.0318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>0.823</v>
+      </c>
+      <c r="D36">
+        <v>-24.445</v>
+      </c>
+      <c r="E36">
+        <v>0.9989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>0.654</v>
+      </c>
+      <c r="D37">
+        <v>-26.3674</v>
+      </c>
+      <c r="E37">
+        <v>1.0228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>0.58</v>
+      </c>
+      <c r="D38">
+        <v>-26.3674</v>
+      </c>
+      <c r="E38">
+        <v>-0.7693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0.786</v>
+      </c>
+      <c r="D39">
+        <v>-29.5016</v>
+      </c>
+      <c r="E39">
+        <v>-0.866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>0.968</v>
+      </c>
+      <c r="D40">
+        <v>-29.5016</v>
+      </c>
+      <c r="E40">
+        <v>-0.1244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>178</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0.509</v>
+      </c>
+      <c r="D41">
+        <v>-29.5016</v>
+      </c>
+      <c r="E41">
+        <v>0.0648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>0.983</v>
+      </c>
+      <c r="D42">
+        <v>-29.5016</v>
+      </c>
+      <c r="E42">
+        <v>0.9147999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>154</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0.628</v>
+      </c>
+      <c r="D43">
+        <v>-30.8155</v>
+      </c>
+      <c r="E43">
+        <v>-0.0298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0.821</v>
+      </c>
+      <c r="D44">
+        <v>-30.8155</v>
+      </c>
+      <c r="E44">
+        <v>0.0416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>172</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>0.527</v>
+      </c>
+      <c r="D45">
+        <v>-32.0042</v>
+      </c>
+      <c r="E45">
+        <v>2.074</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0.986</v>
+      </c>
+      <c r="D46">
+        <v>-33.0893</v>
+      </c>
+      <c r="E46">
+        <v>-0.1269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>0.658</v>
+      </c>
+      <c r="D47">
+        <v>-33.0893</v>
+      </c>
+      <c r="E47">
+        <v>-0.6482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0.963</v>
+      </c>
+      <c r="D48">
+        <v>-33.0893</v>
+      </c>
+      <c r="E48">
+        <v>-0.3611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>0.698</v>
+      </c>
+      <c r="D49">
+        <v>-33.0893</v>
+      </c>
+      <c r="E49">
+        <v>-0.2477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>115</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>0.797</v>
+      </c>
+      <c r="D50">
+        <v>-34.0875</v>
+      </c>
+      <c r="E50">
+        <v>0.1211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>0.972</v>
+      </c>
+      <c r="D51">
+        <v>-34.0875</v>
+      </c>
+      <c r="E51">
+        <v>-0.7744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>0.799</v>
+      </c>
+      <c r="D52">
+        <v>-34.0875</v>
+      </c>
+      <c r="E52">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>0.892</v>
+      </c>
+      <c r="D53">
+        <v>-35.0117</v>
+      </c>
+      <c r="E53">
+        <v>1.1407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.882</v>
+      </c>
+      <c r="D54">
+        <v>-35.0117</v>
+      </c>
+      <c r="E54">
+        <v>-0.1263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>165</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>0.571</v>
+      </c>
+      <c r="D55">
+        <v>-35.0117</v>
+      </c>
+      <c r="E55">
+        <v>-0.7292999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>140</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>0.701</v>
+      </c>
+      <c r="D56">
+        <v>-35.8721</v>
+      </c>
+      <c r="E56">
+        <v>0.2144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>0.727</v>
+      </c>
+      <c r="D57">
+        <v>-35.8721</v>
+      </c>
+      <c r="E57">
+        <v>0.4863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>0.76</v>
+      </c>
+      <c r="D58">
+        <v>-36.677</v>
+      </c>
+      <c r="E58">
+        <v>-0.6422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>0.856</v>
+      </c>
+      <c r="D59">
+        <v>-36.677</v>
+      </c>
+      <c r="E59">
+        <v>0.6508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>0.845</v>
+      </c>
+      <c r="D60">
+        <v>-36.677</v>
+      </c>
+      <c r="E60">
+        <v>-0.3594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>0.896</v>
+      </c>
+      <c r="D61">
+        <v>-37.433</v>
+      </c>
+      <c r="E61">
+        <v>0.6035</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>0.975</v>
+      </c>
+      <c r="D62">
+        <v>-37.433</v>
+      </c>
+      <c r="E62">
+        <v>0.2234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>171</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>0.528</v>
+      </c>
+      <c r="D63">
+        <v>-37.433</v>
+      </c>
+      <c r="E63">
+        <v>-0.4668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>0.87</v>
+      </c>
+      <c r="D64">
+        <v>-38.1458</v>
+      </c>
+      <c r="E64">
+        <v>-0.489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>0.997</v>
+      </c>
+      <c r="D65">
+        <v>-38.1458</v>
+      </c>
+      <c r="E65">
+        <v>-0.1023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>0.667</v>
+      </c>
+      <c r="D66">
+        <v>-38.1458</v>
+      </c>
+      <c r="E66">
+        <v>0.5913</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>0.793</v>
+      </c>
+      <c r="D67">
+        <v>-38.8201</v>
+      </c>
+      <c r="E67">
+        <v>-0.6845</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D68">
+        <v>-38.8201</v>
+      </c>
+      <c r="E68">
+        <v>-0.094</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>114</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>0.797</v>
+      </c>
+      <c r="D69">
+        <v>-38.8201</v>
+      </c>
+      <c r="E69">
+        <v>0.4089</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>0.988</v>
+      </c>
+      <c r="D70">
+        <v>-38.8201</v>
+      </c>
+      <c r="E70">
+        <v>0.4868</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>112</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>0.803</v>
+      </c>
+      <c r="D71">
+        <v>-39.4598</v>
+      </c>
+      <c r="E71">
+        <v>-1.0172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>32</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>0.976</v>
+      </c>
+      <c r="D72">
+        <v>-39.4598</v>
+      </c>
+      <c r="E72">
+        <v>-0.1331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>0.827</v>
+      </c>
+      <c r="D73">
+        <v>-39.4598</v>
+      </c>
+      <c r="E73">
+        <v>-1.2011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>0.861</v>
+      </c>
+      <c r="D74">
+        <v>-39.4598</v>
+      </c>
+      <c r="E74">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>0.986</v>
+      </c>
+      <c r="D75">
+        <v>-40.0682</v>
+      </c>
+      <c r="E75">
+        <v>0.8696</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>0.99</v>
+      </c>
+      <c r="D76">
+        <v>-40.0682</v>
+      </c>
+      <c r="E76">
+        <v>-0.2184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0.913</v>
+      </c>
+      <c r="D77">
+        <v>-40.0682</v>
+      </c>
+      <c r="E77">
+        <v>0.2151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>0.917</v>
+      </c>
+      <c r="D78">
+        <v>-40.0682</v>
+      </c>
+      <c r="E78">
+        <v>0.2831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>0.976</v>
+      </c>
+      <c r="D79">
+        <v>-40.0682</v>
+      </c>
+      <c r="E79">
+        <v>1.1267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D80">
+        <v>-40.6484</v>
+      </c>
+      <c r="E80">
+        <v>-0.2414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>0.865</v>
+      </c>
+      <c r="D81">
+        <v>-40.6484</v>
+      </c>
+      <c r="E81">
+        <v>-0.8387</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>0.962</v>
+      </c>
+      <c r="D82">
+        <v>-41.2027</v>
+      </c>
+      <c r="E82">
+        <v>-1.3028</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>153</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>0.632</v>
+      </c>
+      <c r="D83">
+        <v>-41.7335</v>
+      </c>
+      <c r="E83">
+        <v>1.7503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0.839</v>
+      </c>
+      <c r="D84">
+        <v>-41.7335</v>
+      </c>
+      <c r="E84">
+        <v>0.6882</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>0.978</v>
+      </c>
+      <c r="D85">
+        <v>-42.2426</v>
+      </c>
+      <c r="E85">
+        <v>-0.4698</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>0.99</v>
+      </c>
+      <c r="D86">
+        <v>-42.2426</v>
+      </c>
+      <c r="E86">
+        <v>1.091</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>0.989</v>
+      </c>
+      <c r="D87">
+        <v>-42.7317</v>
+      </c>
+      <c r="E87">
+        <v>1.0062</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>0.991</v>
+      </c>
+      <c r="D88">
+        <v>-42.7317</v>
+      </c>
+      <c r="E88">
+        <v>-0.1905</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>0.964</v>
+      </c>
+      <c r="D89">
+        <v>-42.7317</v>
+      </c>
+      <c r="E89">
+        <v>1.3443</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>74</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0.905</v>
+      </c>
+      <c r="D90">
+        <v>-43.6559</v>
+      </c>
+      <c r="E90">
+        <v>-1.1384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>118</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>0.79</v>
+      </c>
+      <c r="D91">
+        <v>-43.6559</v>
+      </c>
+      <c r="E91">
+        <v>0.4151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>0.972</v>
+      </c>
+      <c r="D92">
+        <v>-43.6559</v>
+      </c>
+      <c r="E92">
+        <v>-0.9635</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>67</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>0.92</v>
+      </c>
+      <c r="D93">
+        <v>-44.0935</v>
+      </c>
+      <c r="E93">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>162</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>0.59</v>
+      </c>
+      <c r="D94">
+        <v>-44.5163</v>
+      </c>
+      <c r="E94">
+        <v>0.7000999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="D95">
+        <v>-44.9253</v>
+      </c>
+      <c r="E95">
+        <v>-0.603</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>150</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>0.638</v>
+      </c>
+      <c r="D96">
+        <v>-45.3212</v>
+      </c>
+      <c r="E96">
+        <v>0.3901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>78</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>0.895</v>
+      </c>
+      <c r="D97">
+        <v>-45.3212</v>
+      </c>
+      <c r="E97">
+        <v>-0.3118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>0.987</v>
+      </c>
+      <c r="D98">
+        <v>-45.7049</v>
+      </c>
+      <c r="E98">
+        <v>0.3605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>35</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>0.974</v>
+      </c>
+      <c r="D99">
+        <v>-45.7049</v>
+      </c>
+      <c r="E99">
+        <v>-0.3485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>137</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>0.715</v>
+      </c>
+      <c r="D100">
+        <v>-45.7049</v>
+      </c>
+      <c r="E100">
+        <v>-0.6024</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>160</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>0.603</v>
+      </c>
+      <c r="D101">
+        <v>-45.7049</v>
+      </c>
+      <c r="E101">
+        <v>-0.2143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>130</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0.754</v>
+      </c>
+      <c r="D102">
+        <v>-46.0772</v>
+      </c>
+      <c r="E102">
+        <v>0.9838</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>122</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>0.783</v>
+      </c>
+      <c r="D103">
+        <v>-46.7901</v>
+      </c>
+      <c r="E103">
+        <v>-0.7106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>0.991</v>
+      </c>
+      <c r="D104">
+        <v>-46.7901</v>
+      </c>
+      <c r="E104">
+        <v>-0.701</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>55</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>0.95</v>
+      </c>
+      <c r="D105">
+        <v>-46.7901</v>
+      </c>
+      <c r="E105">
+        <v>0.5446</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>53</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>0.952</v>
+      </c>
+      <c r="D106">
+        <v>-48.104</v>
+      </c>
+      <c r="E106">
+        <v>-0.0588</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="D107">
+        <v>-48.412</v>
+      </c>
+      <c r="E107">
+        <v>-0.2265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>155</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>0.627</v>
+      </c>
+      <c r="D108">
+        <v>-48.7125</v>
+      </c>
+      <c r="E108">
+        <v>-0.7169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>156</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>0.624</v>
+      </c>
+      <c r="D109">
+        <v>-49.0059</v>
+      </c>
+      <c r="E109">
+        <v>-0.0563</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>0.782</v>
+      </c>
+      <c r="D110">
+        <v>-49.0059</v>
+      </c>
+      <c r="E110">
+        <v>0.0839</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>177</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>0.51</v>
+      </c>
+      <c r="D111">
+        <v>-49.2926</v>
+      </c>
+      <c r="E111">
+        <v>-1.0977</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>0.992</v>
+      </c>
+      <c r="D112">
+        <v>-49.5729</v>
+      </c>
+      <c r="E112">
+        <v>-0.1451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>0.821</v>
+      </c>
+      <c r="D113">
+        <v>-49.5729</v>
+      </c>
+      <c r="E113">
+        <v>0.6421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>57</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0.948</v>
+      </c>
+      <c r="D114">
+        <v>-50.3777</v>
+      </c>
+      <c r="E114">
+        <v>-2.2895</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>27</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0.981</v>
+      </c>
+      <c r="D115">
+        <v>-50.8868</v>
+      </c>
+      <c r="E115">
+        <v>0.8885999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>51</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>0.959</v>
+      </c>
+      <c r="D116">
+        <v>-51.376</v>
+      </c>
+      <c r="E116">
+        <v>-1.5162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>0.997</v>
+      </c>
+      <c r="D117">
+        <v>-51.6135</v>
+      </c>
+      <c r="E117">
+        <v>-0.8482</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0.76</v>
+      </c>
+      <c r="D118">
+        <v>-51.8466</v>
+      </c>
+      <c r="E118">
+        <v>1.005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>170</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>0.536</v>
+      </c>
+      <c r="D119">
+        <v>-52.3002</v>
+      </c>
+      <c r="E119">
+        <v>-0.5199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="D120">
+        <v>-52.3002</v>
+      </c>
+      <c r="E120">
+        <v>0.06850000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>104</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>0.825</v>
+      </c>
+      <c r="D121">
+        <v>-52.3002</v>
+      </c>
+      <c r="E121">
+        <v>-1.1813</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>54</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0.951</v>
+      </c>
+      <c r="D122">
+        <v>-52.5209</v>
+      </c>
+      <c r="E122">
+        <v>1.4112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>131</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>0.748</v>
+      </c>
+      <c r="D123">
+        <v>-52.5209</v>
+      </c>
+      <c r="E123">
+        <v>-0.5134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>33</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>0.975</v>
+      </c>
+      <c r="D124">
+        <v>-52.5209</v>
+      </c>
+      <c r="E124">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>0.772</v>
+      </c>
+      <c r="D125">
+        <v>-52.5209</v>
+      </c>
+      <c r="E125">
+        <v>0.2345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>56</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>0.949</v>
+      </c>
+      <c r="D126">
+        <v>-52.7378</v>
+      </c>
+      <c r="E126">
+        <v>-0.2885</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>0.987</v>
+      </c>
+      <c r="D127">
+        <v>-52.7378</v>
+      </c>
+      <c r="E127">
+        <v>-1.7782</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>0.996</v>
+      </c>
+      <c r="D128">
+        <v>-52.951</v>
+      </c>
+      <c r="E128">
+        <v>1.2037</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>102</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>0.838</v>
+      </c>
+      <c r="D129">
+        <v>-54.3492</v>
+      </c>
+      <c r="E129">
+        <v>-0.1269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>143</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D130">
+        <v>-55.083</v>
+      </c>
+      <c r="E130">
+        <v>0.6554</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>142</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D131">
+        <v>-55.2599</v>
+      </c>
+      <c r="E131">
+        <v>0.2735</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>87</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0.875</v>
+      </c>
+      <c r="D132">
+        <v>-55.4343</v>
+      </c>
+      <c r="E132">
+        <v>0.1751</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>105</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>0.823</v>
+      </c>
+      <c r="D133">
+        <v>-55.6063</v>
+      </c>
+      <c r="E133">
+        <v>-0.2119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>38</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>0.97</v>
+      </c>
+      <c r="D134">
+        <v>-56.7483</v>
+      </c>
+      <c r="E134">
+        <v>-0.062</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>176</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0.515</v>
+      </c>
+      <c r="D135">
+        <v>-56.7483</v>
+      </c>
+      <c r="E135">
+        <v>1.0301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>0.917</v>
+      </c>
+      <c r="D136">
+        <v>-56.9032</v>
+      </c>
+      <c r="E136">
+        <v>-0.6405</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>0.712</v>
+      </c>
+      <c r="D137">
+        <v>-56.9032</v>
+      </c>
+      <c r="E137">
+        <v>0.1613</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>28</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>0.979</v>
+      </c>
+      <c r="D138">
+        <v>-57.2074</v>
+      </c>
+      <c r="E138">
+        <v>-1.2746</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>152</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>0.634</v>
+      </c>
+      <c r="D139">
+        <v>-57.2074</v>
+      </c>
+      <c r="E139">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>169</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>0.551</v>
+      </c>
+      <c r="D140">
+        <v>-57.3567</v>
+      </c>
+      <c r="E140">
         <v>0</v>
       </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>47</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>0.961</v>
+      </c>
+      <c r="D141">
+        <v>-57.3567</v>
+      </c>
+      <c r="E141">
+        <v>0.3851</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>101</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>0.838</v>
+      </c>
+      <c r="D142">
+        <v>-57.6502</v>
+      </c>
+      <c r="E142">
+        <v>0.4998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>95</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>0.851</v>
+      </c>
+      <c r="D143">
+        <v>-57.6502</v>
+      </c>
+      <c r="E143">
+        <v>-0.8746</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
         <v>0.997</v>
       </c>
-      <c r="D27">
-        <v>-48.412</v>
-      </c>
-      <c r="E27">
+      <c r="D144">
+        <v>-57.7943</v>
+      </c>
+      <c r="E144">
+        <v>-0.0046</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>63</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>0.931</v>
+      </c>
+      <c r="D145">
+        <v>-58.2171</v>
+      </c>
+      <c r="E145">
+        <v>-0.2426</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>0.992</v>
+      </c>
+      <c r="D146">
+        <v>-58.4912</v>
+      </c>
+      <c r="E146">
         <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>166</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="D147">
+        <v>-59.5311</v>
+      </c>
+      <c r="E147">
+        <v>0.0474</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>164</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>0.573</v>
+      </c>
+      <c r="D148">
+        <v>-59.778</v>
+      </c>
+      <c r="E148">
+        <v>-1.3243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>0.636</v>
+      </c>
+      <c r="D149">
+        <v>-60.7197</v>
+      </c>
+      <c r="E149">
+        <v>0.0358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>179</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>0.503</v>
+      </c>
+      <c r="D150">
+        <v>-60.8326</v>
+      </c>
+      <c r="E150">
+        <v>0.0202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>58</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>0.947</v>
+      </c>
+      <c r="D151">
+        <v>-60.9444</v>
+      </c>
+      <c r="E151">
+        <v>0.0303</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>100</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>0.838</v>
+      </c>
+      <c r="D152">
+        <v>-60.9444</v>
+      </c>
+      <c r="E152">
+        <v>-0.1808</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>49</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>0.96</v>
+      </c>
+      <c r="D153">
+        <v>-61.0553</v>
+      </c>
+      <c r="E153">
+        <v>0.2391</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>15</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>0.988</v>
+      </c>
+      <c r="D154">
+        <v>-61.1651</v>
+      </c>
+      <c r="E154">
+        <v>1.4349</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>76</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>0.896</v>
+      </c>
+      <c r="D155">
+        <v>-61.274</v>
+      </c>
+      <c r="E155">
+        <v>0.6345</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>90</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>0.868</v>
+      </c>
+      <c r="D156">
+        <v>-61.382</v>
+      </c>
+      <c r="E156">
+        <v>-0.2366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>44</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>0.962</v>
+      </c>
+      <c r="D157">
+        <v>-61.382</v>
+      </c>
+      <c r="E157">
+        <v>-0.4733</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>126</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>0.763</v>
+      </c>
+      <c r="D158">
+        <v>-61.8048</v>
+      </c>
+      <c r="E158">
+        <v>0.2346</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>0.986</v>
+      </c>
+      <c r="D159">
+        <v>-62.2137</v>
+      </c>
+      <c r="E159">
+        <v>-0.4633</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>0.998</v>
+      </c>
+      <c r="D160">
+        <v>-62.2137</v>
+      </c>
+      <c r="E160">
+        <v>0.0394</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>52</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>0.953</v>
+      </c>
+      <c r="D161">
+        <v>-62.4133</v>
+      </c>
+      <c r="E161">
+        <v>0.7643</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>81</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>0.89</v>
+      </c>
+      <c r="D162">
+        <v>-62.6097</v>
+      </c>
+      <c r="E162">
+        <v>0.6446</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>65</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>0.927</v>
+      </c>
+      <c r="D163">
+        <v>-62.803</v>
+      </c>
+      <c r="E163">
+        <v>0.6446</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>68</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>0.918</v>
+      </c>
+      <c r="D164">
+        <v>-63.0875</v>
+      </c>
+      <c r="E164">
+        <v>-2.1806</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>117</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>0.79</v>
+      </c>
+      <c r="D165">
+        <v>-63.181</v>
+      </c>
+      <c r="E165">
+        <v>-2.3902</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>30</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>0.977</v>
+      </c>
+      <c r="D166">
+        <v>-63.2737</v>
+      </c>
+      <c r="E166">
+        <v>-1.8363</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>48</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>0.96</v>
+      </c>
+      <c r="D167">
+        <v>-63.4571</v>
+      </c>
+      <c r="E167">
+        <v>-0.7934</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>73</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>0.91</v>
+      </c>
+      <c r="D168">
+        <v>-63.5478</v>
+      </c>
+      <c r="E168">
+        <v>-2.0004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>42</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>0.963</v>
+      </c>
+      <c r="D169">
+        <v>-63.6378</v>
+      </c>
+      <c r="E169">
+        <v>-0.8903</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>60</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D170">
+        <v>-66.075</v>
+      </c>
+      <c r="E170">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>0.998</v>
+      </c>
+      <c r="D171">
+        <v>-66.075</v>
+      </c>
+      <c r="E171">
+        <v>-0.7466</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>85</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>0.883</v>
+      </c>
+      <c r="D172">
+        <v>-66.2217</v>
+      </c>
+      <c r="E172">
+        <v>-0.0591</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>40</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>0.967</v>
+      </c>
+      <c r="D173">
+        <v>-71.6377</v>
+      </c>
+      <c r="E173">
+        <v>-0.096</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>75</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>0.901</v>
+      </c>
+      <c r="D174">
+        <v>-71.7786</v>
+      </c>
+      <c r="E174">
+        <v>1.4859</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>134</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>0.728</v>
+      </c>
+      <c r="D175">
+        <v>-71.7786</v>
+      </c>
+      <c r="E175">
+        <v>-1.2307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>0.526</v>
+      </c>
+      <c r="D176">
+        <v>-71.8252</v>
+      </c>
+      <c r="E176">
+        <v>-1.059</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>18</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>0.987</v>
+      </c>
+      <c r="D177">
+        <v>-71.964</v>
+      </c>
+      <c r="E177">
+        <v>-0.5679</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>159</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>0.612</v>
+      </c>
+      <c r="D178">
+        <v>-72.0557</v>
+      </c>
+      <c r="E178">
+        <v>-0.2359</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>0.996</v>
+      </c>
+      <c r="D179">
+        <v>-72.0557</v>
+      </c>
+      <c r="E179">
+        <v>-0.0298</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>88</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>0.872</v>
+      </c>
+      <c r="D180">
+        <v>-72.5044</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>98</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>0.843</v>
+      </c>
+      <c r="D181">
+        <v>-72.6794</v>
+      </c>
+      <c r="E181">
+        <v>0.0762</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>66</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>0.926</v>
+      </c>
+      <c r="D182">
+        <v>-72.852</v>
+      </c>
+      <c r="E182">
+        <v>0.7578</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +6596,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1348,75 +6618,75 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.82</v>
+        <v>0.527</v>
       </c>
       <c r="D2">
-        <v>-45.3212</v>
+        <v>-32.0042</v>
       </c>
       <c r="E2">
-        <v>0.8351</v>
+        <v>2.074</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.968</v>
+        <v>0.632</v>
       </c>
       <c r="D3">
-        <v>-45.3212</v>
+        <v>-41.7335</v>
       </c>
       <c r="E3">
-        <v>0.8351</v>
+        <v>1.7503</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.583</v>
+        <v>0.901</v>
       </c>
       <c r="D4">
-        <v>-46.4387</v>
+        <v>-71.7786</v>
       </c>
       <c r="E4">
-        <v>0.498</v>
+        <v>1.4859</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.832</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D5">
-        <v>-46.4387</v>
+        <v>-22.1713</v>
       </c>
       <c r="E5">
-        <v>0.498</v>
+        <v>1.4466</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1425,367 +6695,3002 @@
         <v>0.988</v>
       </c>
       <c r="D6">
-        <v>-48.104</v>
+        <v>-61.1651</v>
       </c>
       <c r="E6">
-        <v>0.4871</v>
+        <v>1.4349</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.99</v>
+        <v>0.759</v>
       </c>
       <c r="D7">
-        <v>-48.104</v>
+        <v>-15.8008</v>
       </c>
       <c r="E7">
-        <v>0.4871</v>
+        <v>1.4295</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.958</v>
+        <v>0.951</v>
       </c>
       <c r="D8">
-        <v>-40.0682</v>
+        <v>-52.5209</v>
       </c>
       <c r="E8">
-        <v>0.0214</v>
+        <v>1.4112</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>0.958</v>
+        <v>0.658</v>
       </c>
       <c r="D9">
-        <v>-40.0682</v>
+        <v>-15.8008</v>
       </c>
       <c r="E9">
-        <v>0.0213</v>
+        <v>1.3645</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.997</v>
+        <v>0.964</v>
       </c>
       <c r="D10">
-        <v>-48.412</v>
+        <v>-42.7317</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.3443</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.997</v>
+        <v>0.996</v>
       </c>
       <c r="D11">
-        <v>-48.412</v>
+        <v>-52.951</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.2037</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.99</v>
+        <v>0.892</v>
       </c>
       <c r="D12">
-        <v>-43.2024</v>
+        <v>-35.0117</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1.1407</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.99</v>
+        <v>0.976</v>
       </c>
       <c r="D13">
-        <v>-43.2024</v>
+        <v>-40.0682</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.1267</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.985</v>
+        <v>0.99</v>
       </c>
       <c r="D14">
-        <v>-44.0935</v>
+        <v>-42.2426</v>
       </c>
       <c r="E14">
-        <v>-0.0364</v>
+        <v>1.091</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>0.985</v>
+        <v>0.515</v>
       </c>
       <c r="D15">
-        <v>-44.0935</v>
+        <v>-56.7483</v>
       </c>
       <c r="E15">
-        <v>-0.0364</v>
+        <v>1.0301</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.993</v>
+        <v>0.654</v>
       </c>
       <c r="D16">
-        <v>-48.104</v>
+        <v>-26.3674</v>
       </c>
       <c r="E16">
-        <v>-0.1322</v>
+        <v>1.0228</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.993</v>
+        <v>0.989</v>
       </c>
       <c r="D17">
-        <v>-48.104</v>
+        <v>-42.7317</v>
       </c>
       <c r="E17">
-        <v>-0.1322</v>
+        <v>1.0062</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.6870000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="D18">
-        <v>-19.3885</v>
+        <v>-51.8466</v>
       </c>
       <c r="E18">
-        <v>-0.3633</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19">
-        <v>0.6850000000000001</v>
+        <v>0.823</v>
       </c>
       <c r="D19">
-        <v>-19.3885</v>
+        <v>-24.445</v>
       </c>
       <c r="E19">
-        <v>-0.3633</v>
+        <v>0.9989</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.631</v>
+        <v>0.754</v>
       </c>
       <c r="D20">
-        <v>-24.445</v>
+        <v>-46.0772</v>
       </c>
       <c r="E20">
-        <v>-0.4461</v>
+        <v>0.9838</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>0.632</v>
+        <v>0.983</v>
       </c>
       <c r="D21">
-        <v>-24.445</v>
+        <v>-29.5016</v>
       </c>
       <c r="E21">
-        <v>-0.4462</v>
+        <v>0.9147999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.985</v>
+        <v>0.981</v>
       </c>
       <c r="D22">
-        <v>-26.3674</v>
+        <v>-50.8868</v>
       </c>
       <c r="E22">
-        <v>-0.7327</v>
+        <v>0.8885999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>0.985</v>
+        <v>0.986</v>
       </c>
       <c r="D23">
-        <v>-26.3674</v>
+        <v>-40.0682</v>
       </c>
       <c r="E23">
-        <v>-0.7327</v>
+        <v>0.8696</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="D24">
-        <v>-15.8008</v>
+        <v>-19.3885</v>
       </c>
       <c r="E24">
-        <v>-0.8424</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25">
-        <v>0.8</v>
+        <v>0.503</v>
       </c>
       <c r="D25">
-        <v>-15.8008</v>
+        <v>-10.7442</v>
       </c>
       <c r="E25">
-        <v>-0.8424</v>
+        <v>0.8564000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.8070000000000001</v>
+        <v>0.953</v>
       </c>
       <c r="D26">
-        <v>-43.6559</v>
+        <v>-62.4133</v>
       </c>
       <c r="E26">
-        <v>-0.896</v>
+        <v>0.7643</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>0.926</v>
+      </c>
+      <c r="D27">
+        <v>-72.852</v>
+      </c>
+      <c r="E27">
+        <v>0.7578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D28">
+        <v>-2.1</v>
+      </c>
+      <c r="E28">
+        <v>0.7302999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0.986</v>
+      </c>
+      <c r="D29">
+        <v>-19.3885</v>
+      </c>
+      <c r="E29">
+        <v>0.7196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0.892</v>
+      </c>
+      <c r="D30">
+        <v>-24.445</v>
+      </c>
+      <c r="E30">
+        <v>0.7131999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>0.527</v>
+      </c>
+      <c r="D31">
+        <v>-15.8008</v>
+      </c>
+      <c r="E31">
+        <v>0.7096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0.59</v>
+      </c>
+      <c r="D32">
+        <v>-44.5163</v>
+      </c>
+      <c r="E32">
+        <v>0.7000999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0.839</v>
+      </c>
+      <c r="D33">
+        <v>-41.7335</v>
+      </c>
+      <c r="E33">
+        <v>0.6882</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D34">
+        <v>-55.083</v>
+      </c>
+      <c r="E34">
+        <v>0.6554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>0.856</v>
+      </c>
+      <c r="D35">
+        <v>-36.677</v>
+      </c>
+      <c r="E35">
+        <v>0.6508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>0.927</v>
+      </c>
+      <c r="D36">
+        <v>-62.803</v>
+      </c>
+      <c r="E36">
+        <v>0.6446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>0.89</v>
+      </c>
+      <c r="D37">
+        <v>-62.6097</v>
+      </c>
+      <c r="E37">
+        <v>0.6446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>0.821</v>
+      </c>
+      <c r="D38">
+        <v>-49.5729</v>
+      </c>
+      <c r="E38">
+        <v>0.6421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0.896</v>
+      </c>
+      <c r="D39">
+        <v>-61.274</v>
+      </c>
+      <c r="E39">
+        <v>0.6345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>0.896</v>
+      </c>
+      <c r="D40">
+        <v>-37.433</v>
+      </c>
+      <c r="E40">
+        <v>0.6035</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0.667</v>
+      </c>
+      <c r="D41">
+        <v>-38.1458</v>
+      </c>
+      <c r="E41">
+        <v>0.5913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>0.95</v>
+      </c>
+      <c r="D42">
+        <v>-46.7901</v>
+      </c>
+      <c r="E42">
+        <v>0.5446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0.838</v>
+      </c>
+      <c r="D43">
+        <v>-57.6502</v>
+      </c>
+      <c r="E43">
+        <v>0.4998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0.988</v>
+      </c>
+      <c r="D44">
+        <v>-38.8201</v>
+      </c>
+      <c r="E44">
+        <v>0.4868</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>135</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>0.727</v>
+      </c>
+      <c r="D45">
+        <v>-35.8721</v>
+      </c>
+      <c r="E45">
+        <v>0.4863</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0.79</v>
+      </c>
+      <c r="D46">
+        <v>-43.6559</v>
+      </c>
+      <c r="E46">
+        <v>0.4151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>0.797</v>
+      </c>
+      <c r="D47">
+        <v>-38.8201</v>
+      </c>
+      <c r="E47">
+        <v>0.4089</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0.962</v>
+      </c>
+      <c r="D48">
+        <v>-15.8008</v>
+      </c>
+      <c r="E48">
+        <v>0.4009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>0.638</v>
+      </c>
+      <c r="D49">
+        <v>-45.3212</v>
+      </c>
+      <c r="E49">
+        <v>0.3901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>0.961</v>
+      </c>
+      <c r="D50">
+        <v>-57.3567</v>
+      </c>
+      <c r="E50">
+        <v>0.3851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>0.987</v>
+      </c>
+      <c r="D51">
+        <v>-45.7049</v>
+      </c>
+      <c r="E51">
+        <v>0.3605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>0.72</v>
+      </c>
+      <c r="D52">
+        <v>-15.8008</v>
+      </c>
+      <c r="E52">
+        <v>0.3383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>0.747</v>
+      </c>
+      <c r="D53">
+        <v>-19.3885</v>
+      </c>
+      <c r="E53">
+        <v>0.3352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.929</v>
+      </c>
+      <c r="D54">
+        <v>-24.445</v>
+      </c>
+      <c r="E54">
+        <v>0.3022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>0.917</v>
+      </c>
+      <c r="D55">
+        <v>-40.0682</v>
+      </c>
+      <c r="E55">
+        <v>0.2831</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>142</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="D56">
+        <v>-55.2599</v>
+      </c>
+      <c r="E56">
+        <v>0.2735</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>0.96</v>
+      </c>
+      <c r="D57">
+        <v>-61.0553</v>
+      </c>
+      <c r="E57">
+        <v>0.2391</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>0.861</v>
+      </c>
+      <c r="D58">
+        <v>-39.4598</v>
+      </c>
+      <c r="E58">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>0.763</v>
+      </c>
+      <c r="D59">
+        <v>-61.8048</v>
+      </c>
+      <c r="E59">
+        <v>0.2346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>0.772</v>
+      </c>
+      <c r="D60">
+        <v>-52.5209</v>
+      </c>
+      <c r="E60">
+        <v>0.2345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>0.975</v>
+      </c>
+      <c r="D61">
+        <v>-37.433</v>
+      </c>
+      <c r="E61">
+        <v>0.2234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>0.92</v>
+      </c>
+      <c r="D62">
+        <v>-44.0935</v>
+      </c>
+      <c r="E62">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>0.913</v>
+      </c>
+      <c r="D63">
+        <v>-40.0682</v>
+      </c>
+      <c r="E63">
+        <v>0.2151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>0.701</v>
+      </c>
+      <c r="D64">
+        <v>-35.8721</v>
+      </c>
+      <c r="E64">
+        <v>0.2144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>0.634</v>
+      </c>
+      <c r="D65">
+        <v>-57.2074</v>
+      </c>
+      <c r="E65">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>0.99</v>
+      </c>
+      <c r="D66">
+        <v>-19.3885</v>
+      </c>
+      <c r="E66">
+        <v>0.1928</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>87</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>0.875</v>
+      </c>
+      <c r="D67">
+        <v>-55.4343</v>
+      </c>
+      <c r="E67">
+        <v>0.1751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>0.712</v>
+      </c>
+      <c r="D68">
+        <v>-56.9032</v>
+      </c>
+      <c r="E68">
+        <v>0.1613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>60</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D69">
+        <v>-66.075</v>
+      </c>
+      <c r="E69">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>115</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>0.797</v>
+      </c>
+      <c r="D70">
+        <v>-34.0875</v>
+      </c>
+      <c r="E70">
+        <v>0.1211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>0.918</v>
+      </c>
+      <c r="D71">
+        <v>-15.8008</v>
+      </c>
+      <c r="E71">
+        <v>0.1116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>113</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>0.799</v>
+      </c>
+      <c r="D72">
+        <v>-34.0875</v>
+      </c>
+      <c r="E72">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>0.782</v>
+      </c>
+      <c r="D73">
+        <v>-49.0059</v>
+      </c>
+      <c r="E73">
+        <v>0.0839</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>98</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>0.843</v>
+      </c>
+      <c r="D74">
+        <v>-72.6794</v>
+      </c>
+      <c r="E74">
+        <v>0.0762</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>111</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="D75">
+        <v>-52.3002</v>
+      </c>
+      <c r="E75">
+        <v>0.06850000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>178</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>0.509</v>
+      </c>
+      <c r="D76">
+        <v>-29.5016</v>
+      </c>
+      <c r="E76">
+        <v>0.0648</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="D77">
+        <v>-59.5311</v>
+      </c>
+      <c r="E77">
+        <v>0.0474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>108</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>0.821</v>
+      </c>
+      <c r="D78">
+        <v>-30.8155</v>
+      </c>
+      <c r="E78">
+        <v>0.0416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>0.998</v>
+      </c>
+      <c r="D79">
+        <v>-62.2137</v>
+      </c>
+      <c r="E79">
+        <v>0.0394</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>151</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>0.636</v>
+      </c>
+      <c r="D80">
+        <v>-60.7197</v>
+      </c>
+      <c r="E80">
+        <v>0.0358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>0.947</v>
+      </c>
+      <c r="D81">
+        <v>-60.9444</v>
+      </c>
+      <c r="E81">
+        <v>0.0303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>179</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>0.503</v>
+      </c>
+      <c r="D82">
+        <v>-60.8326</v>
+      </c>
+      <c r="E82">
+        <v>0.0202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>0.984</v>
+      </c>
+      <c r="D83">
+        <v>-19.3885</v>
+      </c>
+      <c r="E83">
+        <v>0.0171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0.975</v>
+      </c>
+      <c r="D84">
+        <v>-52.5209</v>
+      </c>
+      <c r="E84">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>0.872</v>
+      </c>
+      <c r="D85">
+        <v>-72.5044</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>0.992</v>
+      </c>
+      <c r="D86">
+        <v>-58.4912</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>0.551</v>
+      </c>
+      <c r="D87">
+        <v>-57.3567</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>0.997</v>
+      </c>
+      <c r="D88">
+        <v>-57.7943</v>
+      </c>
+      <c r="E88">
+        <v>-0.0046</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>0.884</v>
+      </c>
+      <c r="D89">
+        <v>-22.1713</v>
+      </c>
+      <c r="E89">
+        <v>-0.0232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>154</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0.628</v>
+      </c>
+      <c r="D90">
+        <v>-30.8155</v>
+      </c>
+      <c r="E90">
+        <v>-0.0298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>0.996</v>
+      </c>
+      <c r="D91">
+        <v>-72.0557</v>
+      </c>
+      <c r="E91">
+        <v>-0.0298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>161</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>0.598</v>
+      </c>
+      <c r="D92">
+        <v>-24.445</v>
+      </c>
+      <c r="E92">
+        <v>-0.0318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>156</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>0.624</v>
+      </c>
+      <c r="D93">
+        <v>-49.0059</v>
+      </c>
+      <c r="E93">
+        <v>-0.0563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>53</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>0.952</v>
+      </c>
+      <c r="D94">
+        <v>-48.104</v>
+      </c>
+      <c r="E94">
+        <v>-0.0588</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>85</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>0.883</v>
+      </c>
+      <c r="D95">
+        <v>-66.2217</v>
+      </c>
+      <c r="E95">
+        <v>-0.0591</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>38</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>0.97</v>
+      </c>
+      <c r="D96">
+        <v>-56.7483</v>
+      </c>
+      <c r="E96">
+        <v>-0.062</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>62</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D97">
+        <v>-38.8201</v>
+      </c>
+      <c r="E97">
+        <v>-0.094</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>40</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>0.967</v>
+      </c>
+      <c r="D98">
+        <v>-71.6377</v>
+      </c>
+      <c r="E98">
+        <v>-0.096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>0.997</v>
+      </c>
+      <c r="D99">
+        <v>-38.1458</v>
+      </c>
+      <c r="E99">
+        <v>-0.1023</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>39</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>0.968</v>
+      </c>
+      <c r="D100">
+        <v>-29.5016</v>
+      </c>
+      <c r="E100">
+        <v>-0.1244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>86</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>0.882</v>
+      </c>
+      <c r="D101">
+        <v>-35.0117</v>
+      </c>
+      <c r="E101">
+        <v>-0.1263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>23</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0.986</v>
+      </c>
+      <c r="D102">
+        <v>-33.0893</v>
+      </c>
+      <c r="E102">
+        <v>-0.1269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>0.838</v>
+      </c>
+      <c r="D103">
+        <v>-54.3492</v>
+      </c>
+      <c r="E103">
+        <v>-0.1269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>0.976</v>
+      </c>
+      <c r="D104">
+        <v>-39.4598</v>
+      </c>
+      <c r="E104">
+        <v>-0.1331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>0.992</v>
+      </c>
+      <c r="D105">
+        <v>-49.5729</v>
+      </c>
+      <c r="E105">
+        <v>-0.1451</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>133</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>0.739</v>
+      </c>
+      <c r="D106">
+        <v>-19.3885</v>
+      </c>
+      <c r="E106">
+        <v>-0.1461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>100</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>0.838</v>
+      </c>
+      <c r="D107">
+        <v>-60.9444</v>
+      </c>
+      <c r="E107">
+        <v>-0.1808</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>0.991</v>
+      </c>
+      <c r="D108">
+        <v>-42.7317</v>
+      </c>
+      <c r="E108">
+        <v>-0.1905</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>138</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>0.713</v>
+      </c>
+      <c r="D109">
+        <v>-22.1713</v>
+      </c>
+      <c r="E109">
+        <v>-0.1987</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>105</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>0.823</v>
+      </c>
+      <c r="D110">
+        <v>-55.6063</v>
+      </c>
+      <c r="E110">
+        <v>-0.2119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>160</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>0.603</v>
+      </c>
+      <c r="D111">
+        <v>-45.7049</v>
+      </c>
+      <c r="E111">
+        <v>-0.2143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>0.99</v>
+      </c>
+      <c r="D112">
+        <v>-40.0682</v>
+      </c>
+      <c r="E112">
+        <v>-0.2184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>0.785</v>
+      </c>
+      <c r="D113">
+        <v>-19.3885</v>
+      </c>
+      <c r="E113">
+        <v>-0.2239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="D114">
+        <v>-48.412</v>
+      </c>
+      <c r="E114">
+        <v>-0.2265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>94</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0.856</v>
+      </c>
+      <c r="D115">
+        <v>-19.3885</v>
+      </c>
+      <c r="E115">
+        <v>-0.2328</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>159</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>0.612</v>
+      </c>
+      <c r="D116">
+        <v>-72.0557</v>
+      </c>
+      <c r="E116">
+        <v>-0.2359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>90</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>0.868</v>
+      </c>
+      <c r="D117">
+        <v>-61.382</v>
+      </c>
+      <c r="E117">
+        <v>-0.2366</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>167</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="D118">
+        <v>-40.6484</v>
+      </c>
+      <c r="E118">
+        <v>-0.2414</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>63</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>0.931</v>
+      </c>
+      <c r="D119">
+        <v>-58.2171</v>
+      </c>
+      <c r="E119">
+        <v>-0.2426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>141</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>0.698</v>
+      </c>
+      <c r="D120">
+        <v>-33.0893</v>
+      </c>
+      <c r="E120">
+        <v>-0.2477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>148</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>0.644</v>
+      </c>
+      <c r="D121">
+        <v>-15.8008</v>
+      </c>
+      <c r="E121">
+        <v>-0.2847</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>56</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0.949</v>
+      </c>
+      <c r="D122">
+        <v>-52.7378</v>
+      </c>
+      <c r="E122">
+        <v>-0.2885</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>78</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>0.895</v>
+      </c>
+      <c r="D123">
+        <v>-45.3212</v>
+      </c>
+      <c r="E123">
+        <v>-0.3118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>35</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>0.974</v>
+      </c>
+      <c r="D124">
+        <v>-45.7049</v>
+      </c>
+      <c r="E124">
+        <v>-0.3485</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>97</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>0.845</v>
+      </c>
+      <c r="D125">
+        <v>-36.677</v>
+      </c>
+      <c r="E125">
+        <v>-0.3594</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>43</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>0.963</v>
+      </c>
+      <c r="D126">
+        <v>-33.0893</v>
+      </c>
+      <c r="E126">
+        <v>-0.3611</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>175</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>0.52</v>
+      </c>
+      <c r="D127">
+        <v>-15.8008</v>
+      </c>
+      <c r="E127">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>0.986</v>
+      </c>
+      <c r="D128">
+        <v>-62.2137</v>
+      </c>
+      <c r="E128">
+        <v>-0.4633</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>171</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>0.528</v>
+      </c>
+      <c r="D129">
+        <v>-37.433</v>
+      </c>
+      <c r="E129">
+        <v>-0.4668</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>29</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>0.978</v>
+      </c>
+      <c r="D130">
+        <v>-42.2426</v>
+      </c>
+      <c r="E130">
+        <v>-0.4698</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>44</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>0.962</v>
+      </c>
+      <c r="D131">
+        <v>-61.382</v>
+      </c>
+      <c r="E131">
+        <v>-0.4733</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>149</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0.64</v>
+      </c>
+      <c r="D132">
+        <v>-19.3885</v>
+      </c>
+      <c r="E132">
+        <v>-0.4879</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>89</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>0.87</v>
+      </c>
+      <c r="D133">
+        <v>-38.1458</v>
+      </c>
+      <c r="E133">
+        <v>-0.489</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>0.748</v>
+      </c>
+      <c r="D134">
+        <v>-52.5209</v>
+      </c>
+      <c r="E134">
+        <v>-0.5134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
         <v>17</v>
       </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="D27">
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>0.988</v>
+      </c>
+      <c r="D135">
+        <v>-22.1713</v>
+      </c>
+      <c r="E135">
+        <v>-0.5168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>170</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>0.536</v>
+      </c>
+      <c r="D136">
+        <v>-52.3002</v>
+      </c>
+      <c r="E136">
+        <v>-0.5199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>59</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>0.947</v>
+      </c>
+      <c r="D137">
+        <v>-19.3885</v>
+      </c>
+      <c r="E137">
+        <v>-0.528</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>0.987</v>
+      </c>
+      <c r="D138">
+        <v>-71.964</v>
+      </c>
+      <c r="E138">
+        <v>-0.5679</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>0.715</v>
+      </c>
+      <c r="D139">
+        <v>-45.7049</v>
+      </c>
+      <c r="E139">
+        <v>-0.6024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>110</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="D140">
+        <v>-44.9253</v>
+      </c>
+      <c r="E140">
+        <v>-0.603</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>70</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>0.917</v>
+      </c>
+      <c r="D141">
+        <v>-56.9032</v>
+      </c>
+      <c r="E141">
+        <v>-0.6405</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>128</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>0.76</v>
+      </c>
+      <c r="D142">
+        <v>-36.677</v>
+      </c>
+      <c r="E142">
+        <v>-0.6422</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>0.658</v>
+      </c>
+      <c r="D143">
+        <v>-33.0893</v>
+      </c>
+      <c r="E143">
+        <v>-0.6482</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>158</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>0.617</v>
+      </c>
+      <c r="D144">
+        <v>-19.3885</v>
+      </c>
+      <c r="E144">
+        <v>-0.6744</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>116</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>0.793</v>
+      </c>
+      <c r="D145">
+        <v>-38.8201</v>
+      </c>
+      <c r="E145">
+        <v>-0.6845</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>0.991</v>
+      </c>
+      <c r="D146">
+        <v>-46.7901</v>
+      </c>
+      <c r="E146">
+        <v>-0.701</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>122</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>0.783</v>
+      </c>
+      <c r="D147">
+        <v>-46.7901</v>
+      </c>
+      <c r="E147">
+        <v>-0.7106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>155</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>0.627</v>
+      </c>
+      <c r="D148">
+        <v>-48.7125</v>
+      </c>
+      <c r="E148">
+        <v>-0.7169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>165</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>0.571</v>
+      </c>
+      <c r="D149">
+        <v>-35.0117</v>
+      </c>
+      <c r="E149">
+        <v>-0.7292999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>0.998</v>
+      </c>
+      <c r="D150">
+        <v>-66.075</v>
+      </c>
+      <c r="E150">
+        <v>-0.7466</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>124</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>0.773</v>
+      </c>
+      <c r="D151">
+        <v>-15.8008</v>
+      </c>
+      <c r="E151">
+        <v>-0.7493</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>163</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>0.58</v>
+      </c>
+      <c r="D152">
+        <v>-26.3674</v>
+      </c>
+      <c r="E152">
+        <v>-0.7693</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>37</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>0.972</v>
+      </c>
+      <c r="D153">
+        <v>-34.0875</v>
+      </c>
+      <c r="E153">
+        <v>-0.7744</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>48</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>0.96</v>
+      </c>
+      <c r="D154">
+        <v>-63.4571</v>
+      </c>
+      <c r="E154">
+        <v>-0.7934</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>0.62</v>
+      </c>
+      <c r="D155">
+        <v>-19.3885</v>
+      </c>
+      <c r="E155">
+        <v>-0.8183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>91</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>0.865</v>
+      </c>
+      <c r="D156">
+        <v>-40.6484</v>
+      </c>
+      <c r="E156">
+        <v>-0.8387</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>0.997</v>
+      </c>
+      <c r="D157">
+        <v>-51.6135</v>
+      </c>
+      <c r="E157">
+        <v>-0.8482</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>120</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>0.786</v>
+      </c>
+      <c r="D158">
+        <v>-29.5016</v>
+      </c>
+      <c r="E158">
+        <v>-0.866</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>95</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>0.851</v>
+      </c>
+      <c r="D159">
+        <v>-57.6502</v>
+      </c>
+      <c r="E159">
+        <v>-0.8746</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>42</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>0.963</v>
+      </c>
+      <c r="D160">
+        <v>-63.6378</v>
+      </c>
+      <c r="E160">
+        <v>-0.8903</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>36</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>0.972</v>
+      </c>
+      <c r="D161">
         <v>-43.6559</v>
       </c>
-      <c r="E27">
-        <v>-0.896</v>
+      <c r="E161">
+        <v>-0.9635</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>112</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>0.803</v>
+      </c>
+      <c r="D162">
+        <v>-39.4598</v>
+      </c>
+      <c r="E162">
+        <v>-1.0172</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>96</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>0.851</v>
+      </c>
+      <c r="D163">
+        <v>-15.8008</v>
+      </c>
+      <c r="E163">
+        <v>-1.0344</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>174</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>0.526</v>
+      </c>
+      <c r="D164">
+        <v>-71.8252</v>
+      </c>
+      <c r="E164">
+        <v>-1.059</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>177</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>0.51</v>
+      </c>
+      <c r="D165">
+        <v>-49.2926</v>
+      </c>
+      <c r="E165">
+        <v>-1.0977</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>74</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>0.905</v>
+      </c>
+      <c r="D166">
+        <v>-43.6559</v>
+      </c>
+      <c r="E166">
+        <v>-1.1384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>82</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>0.885</v>
+      </c>
+      <c r="D167">
+        <v>-22.1713</v>
+      </c>
+      <c r="E167">
+        <v>-1.158</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>104</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>0.825</v>
+      </c>
+      <c r="D168">
+        <v>-52.3002</v>
+      </c>
+      <c r="E168">
+        <v>-1.1813</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>103</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>0.827</v>
+      </c>
+      <c r="D169">
+        <v>-39.4598</v>
+      </c>
+      <c r="E169">
+        <v>-1.2011</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>134</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>0.728</v>
+      </c>
+      <c r="D170">
+        <v>-71.7786</v>
+      </c>
+      <c r="E170">
+        <v>-1.2307</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>28</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>0.979</v>
+      </c>
+      <c r="D171">
+        <v>-57.2074</v>
+      </c>
+      <c r="E171">
+        <v>-1.2746</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>45</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>0.962</v>
+      </c>
+      <c r="D172">
+        <v>-41.2027</v>
+      </c>
+      <c r="E172">
+        <v>-1.3028</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>164</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>0.573</v>
+      </c>
+      <c r="D173">
+        <v>-59.778</v>
+      </c>
+      <c r="E173">
+        <v>-1.3243</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>50</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>0.96</v>
+      </c>
+      <c r="D174">
+        <v>-19.3885</v>
+      </c>
+      <c r="E174">
+        <v>-1.3537</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>51</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>0.959</v>
+      </c>
+      <c r="D175">
+        <v>-51.376</v>
+      </c>
+      <c r="E175">
+        <v>-1.5162</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>19</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>0.987</v>
+      </c>
+      <c r="D176">
+        <v>-52.7378</v>
+      </c>
+      <c r="E176">
+        <v>-1.7782</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>30</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>0.977</v>
+      </c>
+      <c r="D177">
+        <v>-63.2737</v>
+      </c>
+      <c r="E177">
+        <v>-1.8363</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>84</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>0.884</v>
+      </c>
+      <c r="D178">
+        <v>-10.7442</v>
+      </c>
+      <c r="E178">
+        <v>-1.9483</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>73</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>0.91</v>
+      </c>
+      <c r="D179">
+        <v>-63.5478</v>
+      </c>
+      <c r="E179">
+        <v>-2.0004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>68</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>0.918</v>
+      </c>
+      <c r="D180">
+        <v>-63.0875</v>
+      </c>
+      <c r="E180">
+        <v>-2.1806</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>57</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>0.948</v>
+      </c>
+      <c r="D181">
+        <v>-50.3777</v>
+      </c>
+      <c r="E181">
+        <v>-2.2895</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>117</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>0.79</v>
+      </c>
+      <c r="D182">
+        <v>-63.181</v>
+      </c>
+      <c r="E182">
+        <v>-2.3902</v>
       </c>
     </row>
   </sheetData>
